--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-OrganizationAffiliation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -256,7 +256,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirOrganizationAffiliation.organization or  NatlDirOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirEndpointQryOrganizationAffiliation.organization or  NatlDirEndpointQryOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
   </si>
   <si>
     <t>Role</t>
@@ -598,7 +598,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
     <t>OrganizationAffiliation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>
@@ -899,7 +899,7 @@
     <t>Definition of the role the participatingOrganization plays in the association.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/OrganizationAffiliationRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -914,7 +914,7 @@
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
@@ -923,7 +923,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>OrganizationAffiliation.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NatlDirExOrganizationAfflication</t>
+    <t>NatlDirExOrganizationAffiliation</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T10:14:10-04:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -972,119 +972,6 @@
   </si>
   <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.id</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.extension</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>OrganizationAffiliation.endpoint</t>
@@ -1417,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3460,7 +3347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>196</v>
       </c>
@@ -3476,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3880,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>215</v>
       </c>
@@ -3896,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4094,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -4110,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4302,7 +4189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>245</v>
       </c>
@@ -4318,7 +4205,7 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4407,7 +4294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>252</v>
       </c>
@@ -4423,7 +4310,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4516,7 +4403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>262</v>
       </c>
@@ -4532,7 +4419,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4827,7 +4714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>277</v>
       </c>
@@ -4843,7 +4730,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4930,7 +4817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>281</v>
       </c>
@@ -4946,7 +4833,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5031,7 +4918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>286</v>
       </c>
@@ -5047,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -5251,7 +5138,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5338,7 +5225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>302</v>
       </c>
@@ -5354,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5443,7 +5330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>308</v>
       </c>
@@ -5456,10 +5343,10 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5468,13 +5355,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5525,19 +5412,19 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
@@ -5546,741 +5433,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK46">
+  <autoFilter ref="A1:AK39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6290,7 +5444,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3767,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>215</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3981,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -586,30 +586,10 @@
     <t>OrganizationAffiliation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
-</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>OrganizationAffiliation.modifierExtension</t>
@@ -1304,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1314,9 +1294,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1332,23 +1312,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="44.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3040,7 +3020,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3062,12 +3042,14 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3104,17 +3086,19 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3129,7 +3113,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3137,13 +3121,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3156,22 +3138,26 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3219,7 +3205,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3228,25 +3214,25 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3256,16 +3242,16 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>192</v>
@@ -3273,9 +3259,7 @@
       <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
         <v>194</v>
       </c>
@@ -3326,7 +3310,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3338,18 +3322,18 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,30 +3344,28 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3431,41 +3413,41 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3477,15 +3459,17 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3522,31 +3506,31 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>99</v>
@@ -3557,41 +3541,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3615,54 +3601,54 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3676,28 +3662,28 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3722,13 +3708,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3746,7 +3732,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3761,15 +3747,15 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3783,7 +3769,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3792,19 +3778,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3817,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>74</v>
@@ -3829,13 +3815,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3853,7 +3839,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3868,15 +3854,15 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3890,7 +3876,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3899,20 +3885,18 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3924,7 +3908,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -3960,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3975,15 +3959,15 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3997,7 +3981,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4006,17 +3990,15 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4029,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4086,7 +4068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>239</v>
       </c>
@@ -4102,7 +4084,7 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4119,7 +4101,9 @@
       <c r="L27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4168,7 +4152,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4183,15 +4167,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4199,13 +4183,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4214,66 +4198,70 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4288,15 +4276,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4304,7 +4292,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -4319,70 +4307,66 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4403,7 +4387,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>262</v>
       </c>
@@ -4419,7 +4403,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4428,18 +4412,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4505,12 +4487,12 @@
         <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4533,13 +4515,13 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4590,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4605,15 +4587,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4624,10 +4606,10 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4636,13 +4618,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4693,13 +4675,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4708,7 +4690,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4716,7 +4698,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4739,13 +4721,13 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4772,13 +4754,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -4796,7 +4776,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4811,7 +4791,7 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4799,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4842,13 +4822,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4875,11 +4855,11 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -4897,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4912,15 +4892,15 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4934,7 +4914,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4943,7 +4923,7 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>287</v>
@@ -4976,11 +4956,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -4998,7 +4980,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5013,13 +4995,13 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>291</v>
       </c>
@@ -5035,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>292</v>
@@ -5119,12 +5101,12 @@
         <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5144,19 +5126,21 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5204,7 +5188,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5225,7 +5209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>302</v>
       </c>
@@ -5241,13 +5225,13 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>303</v>
@@ -5259,9 +5243,7 @@
         <v>305</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5324,117 +5306,14 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK39">
+  <autoFilter ref="A1:AK38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5444,7 +5323,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-OrganizationAffiliation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-OrganizationAffiliation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -832,7 +832,7 @@
     <t>OrganizationAffiliation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Definition of the role the participatingOrganization plays in the association.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -894,7 +894,7 @@
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
@@ -903,7 +903,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -922,7 +922,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -957,7 +957,7 @@
     <t>OrganizationAffiliation.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1317,7 +1317,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.03515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1293,43 +1293,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEx-OrganizationAffiliation.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-OrganizationAffiliation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-OrganizationAffiliation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -832,7 +832,7 @@
     <t>OrganizationAffiliation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Definition of the role the participatingOrganization plays in the association.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -894,7 +894,7 @@
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
@@ -903,7 +903,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -922,7 +922,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -957,7 +957,7 @@
     <t>OrganizationAffiliation.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1317,7 +1317,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
